--- a/tool/data/raw/ieee9_6.xlsx
+++ b/tool/data/raw/ieee9_6.xlsx
@@ -891,7 +891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,21 +947,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
           <t>Region</t>
         </is>
       </c>
@@ -995,17 +980,6 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>PQ</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1038,17 +1012,6 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>PQ</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1081,17 +1044,6 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>PQ</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1106,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1147,11 +1099,6 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>BASKV</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Region</t>
         </is>
       </c>
@@ -1176,9 +1123,6 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>230</v>
-      </c>
-      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,9 +1146,6 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>230</v>
-      </c>
-      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,9 +1169,6 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>230</v>
-      </c>
-      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
